--- a/03. SourceCode/BKI_QLTTQuocAnh/Template/ThuNhapKhac.xlsx
+++ b/03. SourceCode/BKI_QLTTQuocAnh/Template/ThuNhapKhac.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
   <si>
     <t>STT</t>
   </si>
@@ -50,15 +50,6 @@
   </si>
   <si>
     <t>Lý do</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
   </si>
 </sst>
 </file>
@@ -460,7 +451,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,7 +461,7 @@
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -504,13 +495,13 @@
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1">
         <v>1500000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -521,7 +512,7 @@
         <v>10538</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>9</v>
@@ -530,7 +521,7 @@
         <v>2500000</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -550,7 +541,7 @@
         <v>3000000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -561,7 +552,7 @@
         <v>10542</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>8</v>
@@ -570,7 +561,7 @@
         <v>1500000</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -584,13 +575,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1">
         <v>2050000</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -604,13 +595,13 @@
         <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1">
         <v>1550000</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -624,13 +615,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1">
         <v>1500000</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/03. SourceCode/BKI_QLTTQuocAnh/Template/ThuNhapKhac.xlsx
+++ b/03. SourceCode/BKI_QLTTQuocAnh/Template/ThuNhapKhac.xlsx
@@ -9,47 +9,32 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>STT</t>
   </si>
   <si>
-    <t>Loại thu nhập</t>
+    <t>MA_NV (*)</t>
   </si>
   <si>
-    <t>Cách tính thuế</t>
+    <t>LY_DO</t>
   </si>
   <si>
-    <t>Mã nhân viên</t>
+    <t>HO_TEN</t>
   </si>
   <si>
-    <t>Truy lĩnh</t>
+    <t>SO_TIEN</t>
   </si>
   <si>
-    <t>Truy thu</t>
+    <t>SO_TIEN_NOP_THUE</t>
   </si>
   <si>
-    <t>Lĩnh có tính thuế</t>
-  </si>
-  <si>
-    <t>Số tiền</t>
-  </si>
-  <si>
-    <t>Thuế trực tiếp 5%</t>
-  </si>
-  <si>
-    <t>Thuế trực tiếp 10%</t>
-  </si>
-  <si>
-    <t>Gộp vào lương - tính thuế</t>
-  </si>
-  <si>
-    <t>Lý do</t>
+    <t xml:space="preserve">SO_TIEN_THUC_LINH </t>
   </si>
 </sst>
 </file>
@@ -125,7 +110,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -139,9 +124,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -448,181 +430,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>10537</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>10</v>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1">
+        <v>1500000</v>
       </c>
       <c r="E2" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>150000</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1350000</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>10538</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1">
+        <v>2500000</v>
       </c>
       <c r="E3" s="1">
-        <v>2500000</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>250000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2250000</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>10540</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1">
+        <v>3000000</v>
       </c>
       <c r="E4" s="1">
-        <v>3000000</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>300000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2700000</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>10542</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>8</v>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1">
+        <v>1500000</v>
       </c>
       <c r="E5" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>150000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1350000</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>10543</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1">
+        <v>2050000</v>
       </c>
       <c r="E6" s="1">
-        <v>2050000</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>205000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1845000</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>10544</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>10</v>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1">
+        <v>1550000</v>
       </c>
       <c r="E7" s="1">
-        <v>1550000</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>155000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1395000</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>10545</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>10</v>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1">
+        <v>1500000</v>
       </c>
       <c r="E8" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>150000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1350000</v>
+      </c>
+      <c r="G8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/03. SourceCode/BKI_QLTTQuocAnh/Template/ThuNhapKhac.xlsx
+++ b/03. SourceCode/BKI_QLTTQuocAnh/Template/ThuNhapKhac.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>STT</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">SO_TIEN_THUC_LINH </t>
+  </si>
+  <si>
+    <t>HE_SO</t>
   </si>
 </sst>
 </file>
@@ -110,7 +113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -124,6 +127,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -430,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,13 +450,14 @@
     <col min="1" max="1" width="4" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -458,19 +468,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -478,18 +491,21 @@
         <v>10537</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="1">
+      <c r="D2" s="6">
+        <v>44.309999999999995</v>
+      </c>
+      <c r="E2" s="1">
         <v>1500000</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>150000</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>1350000</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -497,18 +513,21 @@
         <v>10538</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="1">
+      <c r="D3" s="6">
+        <v>35.528000000000006</v>
+      </c>
+      <c r="E3" s="1">
         <v>2500000</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>250000</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>2250000</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -516,18 +535,21 @@
         <v>10540</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="1">
+      <c r="D4" s="6">
+        <v>21.338000000000001</v>
+      </c>
+      <c r="E4" s="1">
         <v>3000000</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>300000</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>2700000</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -535,18 +557,21 @@
         <v>10542</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="1">
+      <c r="D5" s="6">
+        <v>19.46</v>
+      </c>
+      <c r="E5" s="1">
         <v>1500000</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>150000</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>1350000</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -554,18 +579,21 @@
         <v>10543</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="1">
+      <c r="D6" s="6">
+        <v>15.819999999999999</v>
+      </c>
+      <c r="E6" s="1">
         <v>2050000</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>205000</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>1845000</v>
       </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -573,18 +601,21 @@
         <v>10544</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="1">
+      <c r="D7" s="6">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="E7" s="1">
         <v>1550000</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>155000</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>1395000</v>
       </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -592,16 +623,19 @@
         <v>10545</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="1">
+      <c r="D8" s="6">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="E8" s="1">
         <v>1500000</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>150000</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>1350000</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
